--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H2">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J2">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N2">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O2">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P2">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q2">
-        <v>0.4104090659480001</v>
+        <v>6.50408971844489</v>
       </c>
       <c r="R2">
-        <v>3.693681593532001</v>
+        <v>58.53680746600401</v>
       </c>
       <c r="S2">
-        <v>0.007918348706316185</v>
+        <v>0.1031531441568243</v>
       </c>
       <c r="T2">
-        <v>0.007918348706316186</v>
+        <v>0.1031531441568243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H3">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I3">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J3">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N3">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O3">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P3">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q3">
-        <v>7.291672836556001</v>
+        <v>8.204959828392443</v>
       </c>
       <c r="R3">
-        <v>65.625055529004</v>
+        <v>73.84463845553199</v>
       </c>
       <c r="S3">
-        <v>0.1406840466324875</v>
+        <v>0.1301284946268365</v>
       </c>
       <c r="T3">
-        <v>0.1406840466324875</v>
+        <v>0.1301284946268365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.991866</v>
+        <v>3.560699333333333</v>
       </c>
       <c r="H4">
-        <v>11.975598</v>
+        <v>10.682098</v>
       </c>
       <c r="I4">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="J4">
-        <v>0.2672133716845888</v>
+        <v>0.2516303646515017</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N4">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O4">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P4">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q4">
-        <v>6.147622669664</v>
+        <v>1.156937679787556</v>
       </c>
       <c r="R4">
-        <v>55.328604026976</v>
+        <v>10.412439118088</v>
       </c>
       <c r="S4">
-        <v>0.1186109763457851</v>
+        <v>0.01834872586784088</v>
       </c>
       <c r="T4">
-        <v>0.1186109763457851</v>
+        <v>0.01834872586784088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>9.14021</v>
       </c>
       <c r="I5">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J5">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N5">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O5">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P5">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q5">
-        <v>0.3132390590155556</v>
+        <v>5.565268722064444</v>
       </c>
       <c r="R5">
-        <v>2.81915153114</v>
+        <v>50.08741849858</v>
       </c>
       <c r="S5">
-        <v>0.00604357043622859</v>
+        <v>0.08826369124807198</v>
       </c>
       <c r="T5">
-        <v>0.006043570436228591</v>
+        <v>0.08826369124807198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>9.14021</v>
       </c>
       <c r="I6">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J6">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N6">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O6">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P6">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q6">
-        <v>5.565268722064443</v>
+        <v>7.020629830682221</v>
       </c>
       <c r="R6">
-        <v>50.08741849857999</v>
+        <v>63.18566847613999</v>
       </c>
       <c r="S6">
-        <v>0.1073751582067741</v>
+        <v>0.1113453338354654</v>
       </c>
       <c r="T6">
-        <v>0.1073751582067741</v>
+        <v>0.1113453338354654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>9.14021</v>
       </c>
       <c r="I7">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="J7">
-        <v>0.2039469203963923</v>
+        <v>0.2153092375010323</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N7">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O7">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P7">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q7">
-        <v>4.692088211502222</v>
+        <v>0.9899416154177778</v>
       </c>
       <c r="R7">
-        <v>42.22879390352</v>
+        <v>8.90947453876</v>
       </c>
       <c r="S7">
-        <v>0.09052819175338951</v>
+        <v>0.01570021241749494</v>
       </c>
       <c r="T7">
-        <v>0.09052819175338953</v>
+        <v>0.01570021241749494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H8">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I8">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J8">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N8">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O8">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P8">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q8">
-        <v>0.4691407255235556</v>
+        <v>8.83213670537689</v>
       </c>
       <c r="R8">
-        <v>4.222266529712001</v>
+        <v>79.489230348392</v>
       </c>
       <c r="S8">
-        <v>0.009051505352224262</v>
+        <v>0.1400753541573769</v>
       </c>
       <c r="T8">
-        <v>0.009051505352224262</v>
+        <v>0.1400753541573769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H9">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I9">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J9">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N9">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O9">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P9">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q9">
-        <v>8.335148924940444</v>
+        <v>11.14180923134844</v>
       </c>
       <c r="R9">
-        <v>75.016340324464</v>
+        <v>100.276283082136</v>
       </c>
       <c r="S9">
-        <v>0.1608166611872978</v>
+        <v>0.1767061500627516</v>
       </c>
       <c r="T9">
-        <v>0.1608166611872978</v>
+        <v>0.1767061500627516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.563122666666667</v>
+        <v>4.835201333333333</v>
       </c>
       <c r="H10">
-        <v>13.689368</v>
+        <v>14.505604</v>
       </c>
       <c r="I10">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743455</v>
       </c>
       <c r="J10">
-        <v>0.3054529869415385</v>
+        <v>0.3416978971743456</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N10">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O10">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P10">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q10">
-        <v>7.027379263246222</v>
+        <v>1.571047170291556</v>
       </c>
       <c r="R10">
-        <v>63.24641336921599</v>
+        <v>14.139424532624</v>
       </c>
       <c r="S10">
-        <v>0.1355848204020164</v>
+        <v>0.02491639295421705</v>
       </c>
       <c r="T10">
-        <v>0.1355848204020164</v>
+        <v>0.02491639295421706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H11">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I11">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J11">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1028113333333334</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N11">
-        <v>0.308434</v>
+        <v>5.479898</v>
       </c>
       <c r="O11">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="P11">
-        <v>0.0296330556229154</v>
+        <v>0.4099391752648271</v>
       </c>
       <c r="Q11">
-        <v>0.3430963612471112</v>
+        <v>4.946298412148002</v>
       </c>
       <c r="R11">
-        <v>3.087867251224</v>
+        <v>44.51668570933201</v>
       </c>
       <c r="S11">
-        <v>0.006619631128146358</v>
+        <v>0.0784469857025539</v>
       </c>
       <c r="T11">
-        <v>0.006619631128146358</v>
+        <v>0.0784469857025539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H12">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I12">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J12">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.826632666666667</v>
+        <v>2.304311333333333</v>
       </c>
       <c r="N12">
-        <v>5.479897999999999</v>
+        <v>6.912934</v>
       </c>
       <c r="O12">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="P12">
-        <v>0.5264858032574321</v>
+        <v>0.517141461870309</v>
       </c>
       <c r="Q12">
-        <v>6.095738679280888</v>
+        <v>6.239793964684001</v>
       </c>
       <c r="R12">
-        <v>54.86164811352799</v>
+        <v>56.158145682156</v>
       </c>
       <c r="S12">
-        <v>0.1176099372308726</v>
+        <v>0.09896148334525545</v>
       </c>
       <c r="T12">
-        <v>0.1176099372308726</v>
+        <v>0.09896148334525545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.337145333333333</v>
+        <v>2.707878</v>
       </c>
       <c r="H13">
-        <v>10.011436</v>
+        <v>8.123634000000001</v>
       </c>
       <c r="I13">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="J13">
-        <v>0.2233867209774804</v>
+        <v>0.1913625006731204</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.540037333333333</v>
+        <v>0.3249186666666667</v>
       </c>
       <c r="N13">
-        <v>4.620112</v>
+        <v>0.9747560000000001</v>
       </c>
       <c r="O13">
-        <v>0.4438811411196524</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="P13">
-        <v>0.4438811411196525</v>
+        <v>0.07291936286486389</v>
       </c>
       <c r="Q13">
-        <v>5.139328400092444</v>
+        <v>0.8798401092560002</v>
       </c>
       <c r="R13">
-        <v>46.25395560083199</v>
+        <v>7.918560983304001</v>
       </c>
       <c r="S13">
-        <v>0.09915715261846139</v>
+        <v>0.01395403162531103</v>
       </c>
       <c r="T13">
-        <v>0.09915715261846139</v>
+        <v>0.01395403162531103</v>
       </c>
     </row>
   </sheetData>
